--- a/ipv6/ipv6-transition-mechanisms.xlsx
+++ b/ipv6/ipv6-transition-mechanisms.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/ipv6/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501A7A69-AF01-DC40-B9AD-7D5151CA795D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3540" yWindow="1280" windowWidth="31820" windowHeight="19020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="characteristics" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="tunneling-details" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="nat" sheetId="3" r:id="rId5"/>
+    <sheet name="characteristics" sheetId="1" r:id="rId1"/>
+    <sheet name="tunneling-details" sheetId="2" r:id="rId2"/>
+    <sheet name="nat" sheetId="3" r:id="rId3"/>
+    <sheet name="ipv6 addresses" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="119">
   <si>
     <t>blueprint</t>
   </si>
@@ -24,9 +34,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>IGP support</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -87,21 +94,9 @@
     <t>auto, ipv6 domains via ipv4 clouds</t>
   </si>
   <si>
-    <t>ipv6 islands</t>
-  </si>
-  <si>
-    <t>2002:x.x.x.x:/64</t>
-  </si>
-  <si>
-    <t>ipv6 addr must be 2002::/16</t>
-  </si>
-  <si>
     <t>dynamic tunneling</t>
   </si>
   <si>
-    <t>global reachability for 2002::/16 prefix</t>
-  </si>
-  <si>
     <t>ISATAP</t>
   </si>
   <si>
@@ -141,9 +136,6 @@
     <t>udp</t>
   </si>
   <si>
-    <t>dual-stack hosts send ipv6 packets over ipv4 network</t>
-  </si>
-  <si>
     <t>fe80::0200:5efe:x.x.x.x (or fe80::0000:5efe)</t>
   </si>
   <si>
@@ -261,9 +253,6 @@
     <t>rely on administrative (manual/static) addressing rules or algorithmic (automatic)</t>
   </si>
   <si>
-    <t>generic routing encapsulation</t>
-  </si>
-  <si>
     <t>may or may not support access to global ipv6 internet</t>
   </si>
   <si>
@@ -283,99 +272,536 @@
   </si>
   <si>
     <t>translation schemes can be stateful or stateless</t>
+  </si>
+  <si>
+    <t>proto#</t>
+  </si>
+  <si>
+    <t>eui-64</t>
+  </si>
+  <si>
+    <t>FE80::/96 + 32 bits from ipv4 source (ipv4 mapped)</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>ipv4 head (20) + ipv6 head (40)</t>
+  </si>
+  <si>
+    <t>ipv4 head (20) + gre head (4)  ipv6 head (40)</t>
+  </si>
+  <si>
+    <t>mtu considerations (bytes)</t>
+  </si>
+  <si>
+    <t>ipv6 IGPs</t>
+  </si>
+  <si>
+    <t>2002:x.x.x.x/48  (2002::/16 reserved for auto tunnels)</t>
+  </si>
+  <si>
+    <t>2002/16</t>
+  </si>
+  <si>
+    <t>automatic 6to4</t>
+  </si>
+  <si>
+    <t>0-16</t>
+  </si>
+  <si>
+    <t>16-48</t>
+  </si>
+  <si>
+    <t>x.x.x.x</t>
+  </si>
+  <si>
+    <t>48-64</t>
+  </si>
+  <si>
+    <t>subnet</t>
+  </si>
+  <si>
+    <t>10.1.1.2</t>
+  </si>
+  <si>
+    <t>0000 0001</t>
+  </si>
+  <si>
+    <t>0000 0010</t>
+  </si>
+  <si>
+    <t>0000 1010</t>
+  </si>
+  <si>
+    <t>0a01</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>not configured, derived from ipv6 addr</t>
+  </si>
+  <si>
+    <t>tunnel link-local address format</t>
+  </si>
+  <si>
+    <t>ipv4 source addr</t>
+  </si>
+  <si>
+    <t>ipv4 dest addr</t>
+  </si>
+  <si>
+    <t>ipv6 source addr</t>
+  </si>
+  <si>
+    <t>interface addr</t>
+  </si>
+  <si>
+    <t>manual add to tunnel interface</t>
+  </si>
+  <si>
+    <t>derived from source int address or assigned tunnel addr</t>
+  </si>
+  <si>
+    <t>global, manual assignment</t>
+  </si>
+  <si>
+    <t>tunnel ipv6 address format</t>
+  </si>
+  <si>
+    <t>does not support IGPs, global reachability for 2002::/16 prefix</t>
+  </si>
+  <si>
+    <t>ipv6 islands, multiple domains, using p2mp links</t>
+  </si>
+  <si>
+    <t>dual-stack, single ipv6 domain over ipv4 network</t>
+  </si>
+  <si>
+    <t>6RE, ipv6 routing encapsulation, ipv6 gre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -385,9 +811,9 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -395,9 +821,9 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -405,65 +831,65 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="C7" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="C8" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -471,37 +897,37 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -509,7 +935,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
@@ -517,7 +943,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -525,7 +951,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -533,7 +959,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -541,7 +967,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -549,7 +975,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -558,292 +984,376 @@
       <c r="F22" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.14"/>
-    <col customWidth="1" min="2" max="2" width="9.0"/>
-    <col customWidth="1" min="3" max="3" width="11.71"/>
-    <col customWidth="1" min="4" max="4" width="38.14"/>
-    <col customWidth="1" min="5" max="5" width="9.14"/>
-    <col customWidth="1" min="6" max="6" width="10.71"/>
-    <col customWidth="1" min="7" max="7" width="44.71"/>
-    <col customWidth="1" min="8" max="8" width="39.29"/>
-    <col customWidth="1" min="9" max="9" width="47.71"/>
-    <col customWidth="1" min="10" max="10" width="32.0"/>
-    <col customWidth="1" min="11" max="11" width="55.71"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" customWidth="1"/>
+    <col min="14" max="14" width="44.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32" customWidth="1"/>
+    <col min="16" max="16" width="55.6640625" customWidth="1"/>
+    <col min="17" max="17" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8">
+        <v>41</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8">
+        <v>41</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8">
+        <v>41</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8">
+        <v>41</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8">
+        <v>47</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2">
-        <v>47.0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="14"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.57"/>
-    <col customWidth="1" min="4" max="4" width="27.86"/>
-    <col customWidth="1" min="7" max="7" width="27.86"/>
-    <col customWidth="1" min="9" max="9" width="50.0"/>
-    <col customWidth="1" min="10" max="10" width="32.43"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="9" max="9" width="50" customWidth="1"/>
+    <col min="10" max="10" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,144 +1361,226 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="2" t="s">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A5437D-44DA-9F4F-8422-7D9711CD6759}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>